--- a/Data_Moities/Fecundity.xlsx
+++ b/Data_Moities/Fecundity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardhonor/Documents/R/masters_thesis/Synthesis/Data_Moities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0C3914-BBE3-B44E-9BB1-952A6C3137C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F0F73C-D905-5647-9628-C8BC1DD0E44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{3BBC4001-F2E5-6945-A434-591B9071637E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="254">
   <si>
     <t>Tag</t>
   </si>
@@ -471,16 +471,346 @@
   </si>
   <si>
     <t xml:space="preserve">possible error -- no label in bag but only one left.  </t>
+  </si>
+  <si>
+    <t>d§JBCHY1/1/50§Q§273</t>
+  </si>
+  <si>
+    <t>b§KVEDG1/1/80§Q§279</t>
+  </si>
+  <si>
+    <t>e§VRCAN/1/40§Q§504</t>
+  </si>
+  <si>
+    <t>b§WSSWM3/1/0§Q§569</t>
+  </si>
+  <si>
+    <t>b§JBCHY1/1/50§Q§227</t>
+  </si>
+  <si>
+    <t>a§DVGM/20§Q§105</t>
+  </si>
+  <si>
+    <t>a§KVEDG1/1/80§Q§275</t>
+  </si>
+  <si>
+    <t>a§DVGM/20§Q§107</t>
+  </si>
+  <si>
+    <t>d§CRSOSO/3/40§Q§62</t>
+  </si>
+  <si>
+    <t>d§CBMCK1/3/60§N§i115</t>
+  </si>
+  <si>
+    <t>d§KVEDG1/1/80§Q§294</t>
+  </si>
+  <si>
+    <t>c§CBMCK1/1/0§N§42</t>
+  </si>
+  <si>
+    <t>d§VRCAN/1/40§Q§501</t>
+  </si>
+  <si>
+    <t>d§JARI1/1/80§Q§180</t>
+  </si>
+  <si>
+    <t>b§JBCHY1/1/50§Q§242</t>
+  </si>
+  <si>
+    <t>b§MHBUR1/4/20§Q§343</t>
+  </si>
+  <si>
+    <t>c§CWRIC2/X2§Q§91</t>
+  </si>
+  <si>
+    <t>c§JBBLB2/1/20§Q§210</t>
+  </si>
+  <si>
+    <t>c§VRCAN/1/40§Q§491</t>
+  </si>
+  <si>
+    <t>d§JARI1/1/80§Q§184</t>
+  </si>
+  <si>
+    <t>a§SMITH1/20§Q§456</t>
+  </si>
+  <si>
+    <t>b§VRPET2/3/20§Q§510</t>
+  </si>
+  <si>
+    <t>maple/cnt§11</t>
+  </si>
+  <si>
+    <t>a§VSGARO1/1/0§Q§533</t>
+  </si>
+  <si>
+    <t>d§MHBUR1/4/20§Q§350</t>
+  </si>
+  <si>
+    <t>e§RULEB1/20§N§429</t>
+  </si>
+  <si>
+    <t>e§WSSWM3/1/0§Q§575</t>
+  </si>
+  <si>
+    <t>maple/cnt§27</t>
+  </si>
+  <si>
+    <t>maple/cnt§15</t>
+  </si>
+  <si>
+    <t>a§CBMCK1/1/0§N§36</t>
+  </si>
+  <si>
+    <t>c§CWRIC2/X2§Q§92</t>
+  </si>
+  <si>
+    <t>b§VRCAN/1/40§Q§482</t>
+  </si>
+  <si>
+    <t>d§CWRIC2/X2§Q§98</t>
+  </si>
+  <si>
+    <t>b§SMITH1/20§Q§464</t>
+  </si>
+  <si>
+    <t>d§JWBOY/2/80§Q§262</t>
+  </si>
+  <si>
+    <t>e§EFCC2/4/80§Q§157</t>
+  </si>
+  <si>
+    <t>d§CWRIC2/X2§Q§96</t>
+  </si>
+  <si>
+    <t>a§CBMCK1/1/0§N§35</t>
+  </si>
+  <si>
+    <t>d§DVGM/20§Q§122</t>
+  </si>
+  <si>
+    <t>d§MSMID1/1/20§Q§392</t>
+  </si>
+  <si>
+    <t>a§WSSWM3/1/0§Q§555</t>
+  </si>
+  <si>
+    <t>a§SMAKC1/B§N§432</t>
+  </si>
+  <si>
+    <t>d§MAVBEL2/1/20§N§325</t>
+  </si>
+  <si>
+    <t>b§EFCC2/4/80§Q§144</t>
+  </si>
+  <si>
+    <t>c§MHBUR1/4/20§Q§344</t>
+  </si>
+  <si>
+    <t>d§VRPET2/3/20§Q§506</t>
+  </si>
+  <si>
+    <t>b§JARI1/1/80§Q§172</t>
+  </si>
+  <si>
+    <t>e§WSSWM3/1/0§Q§573</t>
+  </si>
+  <si>
+    <t>e§MAVBEL2/1/20§N§329</t>
+  </si>
+  <si>
+    <t>b§JBBLB2/1/20§Q§202</t>
+  </si>
+  <si>
+    <t>maple/cnt§14</t>
+  </si>
+  <si>
+    <t>e§PDVRT1/20§Q§418</t>
+  </si>
+  <si>
+    <t>b§MHNAT1/2/0§Q§358</t>
+  </si>
+  <si>
+    <t>b§VRCAN/1/40§Q§483</t>
+  </si>
+  <si>
+    <t>b§WSSWM3/1/0§Q§560</t>
+  </si>
+  <si>
+    <t>e§JWBOY/2/80§Q§269</t>
+  </si>
+  <si>
+    <t>e§JWBOY/2/80§Q§268</t>
+  </si>
+  <si>
+    <t>b§JARI1/1/80§Q§169</t>
+  </si>
+  <si>
+    <t>d§CRSOSO/3/40§Q§65</t>
+  </si>
+  <si>
+    <t>c§KVEDG1/1/80§Q§283</t>
+  </si>
+  <si>
+    <t>c§PDVRT1/20§Q§409</t>
+  </si>
+  <si>
+    <t>b|CRSOSO-3-40|Q|76</t>
+  </si>
+  <si>
+    <t>maple/cnt§21</t>
+  </si>
+  <si>
+    <t>a§CWRIC2/X2§Q§84</t>
+  </si>
+  <si>
+    <t>a§MHBUR1/4/20§Q§338</t>
+  </si>
+  <si>
+    <t>d§VSGARO1/1/0§Q§540</t>
+  </si>
+  <si>
+    <t>c§DVGM/20§Q§115</t>
+  </si>
+  <si>
+    <t>maple/cnt§19</t>
+  </si>
+  <si>
+    <t>e§JARI1/1/80§Q§189</t>
+  </si>
+  <si>
+    <t>maple/cnt§20</t>
+  </si>
+  <si>
+    <t>maple/cnt§23</t>
+  </si>
+  <si>
+    <t>e§MSMID1/1/20§Q§602</t>
+  </si>
+  <si>
+    <t>c§MHBUR1/4/20§Q§336</t>
+  </si>
+  <si>
+    <t>b§MHNAT1/2/0§Q§359</t>
+  </si>
+  <si>
+    <t>d§BWPEM1/9/0§Q§18</t>
+  </si>
+  <si>
+    <t>a§MSMID1/1/20§Q§366</t>
+  </si>
+  <si>
+    <t>a§KVEDG1/1/80§Q§273</t>
+  </si>
+  <si>
+    <t>a|CWRIC2-X2|Q|80</t>
+  </si>
+  <si>
+    <t>e§DVGM/20§Q§132</t>
+  </si>
+  <si>
+    <t>b§JBCHY1/1/50§Q§223</t>
+  </si>
+  <si>
+    <t>a§SEBRN/1/20§N§i145</t>
+  </si>
+  <si>
+    <t>c§SMITH1/20§Q§468</t>
+  </si>
+  <si>
+    <t>c§JARI1/1/80§Q§173</t>
+  </si>
+  <si>
+    <t>c§DVGM/20§Q§119</t>
+  </si>
+  <si>
+    <t>a§JWBOY/2/80§Q§251</t>
+  </si>
+  <si>
+    <t>b§VRCAN/1/40§Q§487</t>
+  </si>
+  <si>
+    <t>e§CRSOSO/3/40§Q§54</t>
+  </si>
+  <si>
+    <t>c§SMITH1/20§Q§467</t>
+  </si>
+  <si>
+    <t>b§DVGM/20§Q§113</t>
+  </si>
+  <si>
+    <t>c§MHBUR1/4/20§Q§340</t>
+  </si>
+  <si>
+    <t>d§RULEB1/20§N§426</t>
+  </si>
+  <si>
+    <t>c§CWRIC2/X2§Q§95</t>
+  </si>
+  <si>
+    <t>d§JARI1/1/80§Q§179</t>
+  </si>
+  <si>
+    <t>a§DVGM/20§Q§102</t>
+  </si>
+  <si>
+    <t>e§JKFRS1/6/0§V§i122</t>
+  </si>
+  <si>
+    <t>c§NSLJU1/4/0§V§i141</t>
+  </si>
+  <si>
+    <t>e§DVGM/20§Q§131</t>
+  </si>
+  <si>
+    <t>c§JARI1/1/80§Q§177</t>
+  </si>
+  <si>
+    <t>b§SMAKC1/B§N§439</t>
+  </si>
+  <si>
+    <t>d§VSGARO1/1/0§Q§543</t>
+  </si>
+  <si>
+    <t>d§KVEDG1/1/80§Q§296</t>
+  </si>
+  <si>
+    <t>d§SMAKC1/B§N§442</t>
+  </si>
+  <si>
+    <t>d§VRPET2/3/20§Q§526</t>
+  </si>
+  <si>
+    <t>c§JBCHY1/1/50§Q§235</t>
+  </si>
+  <si>
+    <t>a§SEBRN/1/20§N§i147</t>
+  </si>
+  <si>
+    <t>b§PDVRT1/20§Q§406</t>
+  </si>
+  <si>
+    <t>c§MHBUR1/4/20§Q§349</t>
+  </si>
+  <si>
+    <t>b§KVEDG1/1/80§Q§281</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -822,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE9D37E-007A-E94D-8E3B-6BFE43886E1F}">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="H193" sqref="H193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3037,7 +3367,1660 @@
         <v>145</v>
       </c>
     </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>146</v>
+      </c>
+      <c r="B152">
+        <v>15.05</v>
+      </c>
+      <c r="C152" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>147</v>
+      </c>
+      <c r="B153">
+        <v>15.37</v>
+      </c>
+      <c r="C153" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>148</v>
+      </c>
+      <c r="B154">
+        <v>15.3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>149</v>
+      </c>
+      <c r="B155">
+        <v>14.33</v>
+      </c>
+      <c r="C155" t="s">
+        <v>25</v>
+      </c>
+      <c r="E155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>150</v>
+      </c>
+      <c r="B156">
+        <v>14.48</v>
+      </c>
+      <c r="C156" t="s">
+        <v>25</v>
+      </c>
+      <c r="E156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>151</v>
+      </c>
+      <c r="B157">
+        <v>16.13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="C158" t="s">
+        <v>25</v>
+      </c>
+      <c r="E158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>153</v>
+      </c>
+      <c r="B159">
+        <v>15.85</v>
+      </c>
+      <c r="C159" t="s">
+        <v>25</v>
+      </c>
+      <c r="E159" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>154</v>
+      </c>
+      <c r="B160">
+        <v>15.12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>25</v>
+      </c>
+      <c r="E160" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>155</v>
+      </c>
+      <c r="B161">
+        <v>15.43</v>
+      </c>
+      <c r="C161" t="s">
+        <v>25</v>
+      </c>
+      <c r="E161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>156</v>
+      </c>
+      <c r="B162">
+        <v>15.44</v>
+      </c>
+      <c r="C162" t="s">
+        <v>25</v>
+      </c>
+      <c r="E162" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>157</v>
+      </c>
+      <c r="B163">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="C163" t="s">
+        <v>25</v>
+      </c>
+      <c r="E163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>158</v>
+      </c>
+      <c r="B164">
+        <v>17.3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>25</v>
+      </c>
+      <c r="E164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>159</v>
+      </c>
+      <c r="B165">
+        <v>15.1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>160</v>
+      </c>
+      <c r="B166">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="C166" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4</v>
+      </c>
+      <c r="E166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>160</v>
+      </c>
+      <c r="B167">
+        <v>6.22</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>161</v>
+      </c>
+      <c r="B168">
+        <v>14.46</v>
+      </c>
+      <c r="C168" t="s">
+        <v>25</v>
+      </c>
+      <c r="E168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>162</v>
+      </c>
+      <c r="B169">
+        <v>14.64</v>
+      </c>
+      <c r="C169" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>163</v>
+      </c>
+      <c r="B170">
+        <v>15.04</v>
+      </c>
+      <c r="C170" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>164</v>
+      </c>
+      <c r="B171">
+        <v>14.45</v>
+      </c>
+      <c r="C171" t="s">
+        <v>25</v>
+      </c>
+      <c r="E171" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>165</v>
+      </c>
+      <c r="B172">
+        <v>6.33</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>166</v>
+      </c>
+      <c r="B173">
+        <v>6.6</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>167</v>
+      </c>
+      <c r="B174">
+        <v>6.57</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>168</v>
+      </c>
+      <c r="B175">
+        <v>7.37</v>
+      </c>
+      <c r="C175" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>169</v>
+      </c>
+      <c r="B176">
+        <v>7.17</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+      <c r="E176" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177">
+        <v>5.72</v>
+      </c>
+      <c r="C177" t="s">
+        <v>4</v>
+      </c>
+      <c r="E177" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>171</v>
+      </c>
+      <c r="B178">
+        <v>6.12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>4</v>
+      </c>
+      <c r="E178" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>172</v>
+      </c>
+      <c r="B179">
+        <v>6.33</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+      <c r="E179" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>173</v>
+      </c>
+      <c r="B180">
+        <v>6.75</v>
+      </c>
+      <c r="C180" t="s">
+        <v>4</v>
+      </c>
+      <c r="E180" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>174</v>
+      </c>
+      <c r="B181">
+        <v>6.9</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4</v>
+      </c>
+      <c r="E181" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>175</v>
+      </c>
+      <c r="B182">
+        <v>6.13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+      <c r="E182" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>176</v>
+      </c>
+      <c r="B183">
+        <v>6.79</v>
+      </c>
+      <c r="C183" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>177</v>
+      </c>
+      <c r="B184">
+        <v>6.59</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4</v>
+      </c>
+      <c r="E184" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>178</v>
+      </c>
+      <c r="B185">
+        <v>6.14</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>179</v>
+      </c>
+      <c r="B186">
+        <v>6.04</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>180</v>
+      </c>
+      <c r="B187">
+        <v>6.21</v>
+      </c>
+      <c r="C187" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>181</v>
+      </c>
+      <c r="B188">
+        <v>6.06</v>
+      </c>
+      <c r="C188" t="s">
+        <v>4</v>
+      </c>
+      <c r="E188" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>182</v>
+      </c>
+      <c r="B189">
+        <v>6.21</v>
+      </c>
+      <c r="C189" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>183</v>
+      </c>
+      <c r="B190">
+        <v>6.38</v>
+      </c>
+      <c r="C190" t="s">
+        <v>4</v>
+      </c>
+      <c r="E190" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>184</v>
+      </c>
+      <c r="B191">
+        <v>6.1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>4</v>
+      </c>
+      <c r="E191" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>185</v>
+      </c>
+      <c r="B192">
+        <v>6.45</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+      <c r="E192" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>186</v>
+      </c>
+      <c r="B193">
+        <v>6.56</v>
+      </c>
+      <c r="C193" t="s">
+        <v>4</v>
+      </c>
+      <c r="E193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>187</v>
+      </c>
+      <c r="B194">
+        <v>6.33</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+      <c r="E194" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>188</v>
+      </c>
+      <c r="B195">
+        <v>6.48</v>
+      </c>
+      <c r="C195" t="s">
+        <v>4</v>
+      </c>
+      <c r="E195" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>189</v>
+      </c>
+      <c r="B196">
+        <v>6.28</v>
+      </c>
+      <c r="C196" t="s">
+        <v>4</v>
+      </c>
+      <c r="E196" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>190</v>
+      </c>
+      <c r="B197">
+        <v>6.11</v>
+      </c>
+      <c r="C197" t="s">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>191</v>
+      </c>
+      <c r="B198">
+        <v>5.95</v>
+      </c>
+      <c r="C198" t="s">
+        <v>4</v>
+      </c>
+      <c r="E198" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>192</v>
+      </c>
+      <c r="B199">
+        <v>6.52</v>
+      </c>
+      <c r="C199" t="s">
+        <v>4</v>
+      </c>
+      <c r="E199" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>193</v>
+      </c>
+      <c r="B200">
+        <v>6.38</v>
+      </c>
+      <c r="C200" t="s">
+        <v>4</v>
+      </c>
+      <c r="E200" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>194</v>
+      </c>
+      <c r="B201">
+        <v>5.96</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4</v>
+      </c>
+      <c r="E201" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>195</v>
+      </c>
+      <c r="B202">
+        <v>6.89</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4</v>
+      </c>
+      <c r="E202" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>196</v>
+      </c>
+      <c r="B203">
+        <v>6.99</v>
+      </c>
+      <c r="C203" t="s">
+        <v>4</v>
+      </c>
+      <c r="E203" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>197</v>
+      </c>
+      <c r="B204">
+        <v>6.39</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4</v>
+      </c>
+      <c r="E204" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>198</v>
+      </c>
+      <c r="B205">
+        <v>6.36</v>
+      </c>
+      <c r="C205" t="s">
+        <v>4</v>
+      </c>
+      <c r="E205" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>199</v>
+      </c>
+      <c r="B206">
+        <v>6.33</v>
+      </c>
+      <c r="C206" t="s">
+        <v>4</v>
+      </c>
+      <c r="E206" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>200</v>
+      </c>
+      <c r="B207">
+        <v>6.12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>4</v>
+      </c>
+      <c r="E207" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>201</v>
+      </c>
+      <c r="B208">
+        <v>6.4</v>
+      </c>
+      <c r="C208" t="s">
+        <v>4</v>
+      </c>
+      <c r="E208" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>202</v>
+      </c>
+      <c r="B209">
+        <v>6.33</v>
+      </c>
+      <c r="C209" t="s">
+        <v>4</v>
+      </c>
+      <c r="E209" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>203</v>
+      </c>
+      <c r="B210">
+        <v>6.66</v>
+      </c>
+      <c r="C210" t="s">
+        <v>4</v>
+      </c>
+      <c r="E210" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>204</v>
+      </c>
+      <c r="B211">
+        <v>6.44</v>
+      </c>
+      <c r="C211" t="s">
+        <v>4</v>
+      </c>
+      <c r="E211" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>205</v>
+      </c>
+      <c r="B212">
+        <v>7.6</v>
+      </c>
+      <c r="C212" t="s">
+        <v>4</v>
+      </c>
+      <c r="E212" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>206</v>
+      </c>
+      <c r="B213">
+        <v>6.42</v>
+      </c>
+      <c r="C213" t="s">
+        <v>4</v>
+      </c>
+      <c r="E213" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>207</v>
+      </c>
+      <c r="B214">
+        <v>6.3</v>
+      </c>
+      <c r="C214" t="s">
+        <v>4</v>
+      </c>
+      <c r="E214" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>208</v>
+      </c>
+      <c r="B215">
+        <v>6.42</v>
+      </c>
+      <c r="C215" t="s">
+        <v>4</v>
+      </c>
+      <c r="E215" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>209</v>
+      </c>
+      <c r="B216">
+        <v>5.99</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+      <c r="E216" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>210</v>
+      </c>
+      <c r="B217">
+        <v>6.37</v>
+      </c>
+      <c r="C217" t="s">
+        <v>4</v>
+      </c>
+      <c r="E217" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>211</v>
+      </c>
+      <c r="B218">
+        <v>7.21</v>
+      </c>
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
+      <c r="E218" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>212</v>
+      </c>
+      <c r="B219">
+        <v>6.33</v>
+      </c>
+      <c r="C219" t="s">
+        <v>4</v>
+      </c>
+      <c r="E219" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>213</v>
+      </c>
+      <c r="B220">
+        <v>6.35</v>
+      </c>
+      <c r="C220" t="s">
+        <v>4</v>
+      </c>
+      <c r="E220" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>214</v>
+      </c>
+      <c r="B221">
+        <v>6.39</v>
+      </c>
+      <c r="C221" t="s">
+        <v>4</v>
+      </c>
+      <c r="E221" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>215</v>
+      </c>
+      <c r="B222">
+        <v>7.34</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4</v>
+      </c>
+      <c r="E222" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>216</v>
+      </c>
+      <c r="B223">
+        <v>7.08</v>
+      </c>
+      <c r="C223" t="s">
+        <v>4</v>
+      </c>
+      <c r="E223" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>217</v>
+      </c>
+      <c r="B224">
+        <v>6.73</v>
+      </c>
+      <c r="C224" t="s">
+        <v>4</v>
+      </c>
+      <c r="E224" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>218</v>
+      </c>
+      <c r="B225">
+        <v>6.67</v>
+      </c>
+      <c r="C225" t="s">
+        <v>4</v>
+      </c>
+      <c r="E225" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>219</v>
+      </c>
+      <c r="B226">
+        <v>6.5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>4</v>
+      </c>
+      <c r="E226" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>220</v>
+      </c>
+      <c r="B227">
+        <v>9.01</v>
+      </c>
+      <c r="C227" t="s">
+        <v>25</v>
+      </c>
+      <c r="E227" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>221</v>
+      </c>
+      <c r="B228">
+        <v>9.92</v>
+      </c>
+      <c r="C228" t="s">
+        <v>25</v>
+      </c>
+      <c r="E228" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>222</v>
+      </c>
+      <c r="B229">
+        <v>10.01</v>
+      </c>
+      <c r="C229" t="s">
+        <v>25</v>
+      </c>
+      <c r="E229" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>223</v>
+      </c>
+      <c r="B230">
+        <v>8.64</v>
+      </c>
+      <c r="C230" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230" t="s">
+        <v>4</v>
+      </c>
+      <c r="E230" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>223</v>
+      </c>
+      <c r="B231">
+        <v>6.46</v>
+      </c>
+      <c r="C231" t="s">
+        <v>4</v>
+      </c>
+      <c r="D231" t="s">
+        <v>4</v>
+      </c>
+      <c r="E231" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>224</v>
+      </c>
+      <c r="B232">
+        <v>18.96</v>
+      </c>
+      <c r="C232" t="s">
+        <v>25</v>
+      </c>
+      <c r="E232" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>225</v>
+      </c>
+      <c r="B233">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="C233" t="s">
+        <v>25</v>
+      </c>
+      <c r="E233" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>226</v>
+      </c>
+      <c r="B234">
+        <v>19.37</v>
+      </c>
+      <c r="C234" t="s">
+        <v>25</v>
+      </c>
+      <c r="E234" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>227</v>
+      </c>
+      <c r="B235">
+        <v>9.51</v>
+      </c>
+      <c r="C235" t="s">
+        <v>25</v>
+      </c>
+      <c r="D235" t="s">
+        <v>4</v>
+      </c>
+      <c r="E235" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>227</v>
+      </c>
+      <c r="B236">
+        <v>6.61</v>
+      </c>
+      <c r="C236" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236" t="s">
+        <v>4</v>
+      </c>
+      <c r="E236" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>228</v>
+      </c>
+      <c r="B237">
+        <v>12.25</v>
+      </c>
+      <c r="C237" t="s">
+        <v>25</v>
+      </c>
+      <c r="E237" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>229</v>
+      </c>
+      <c r="B238">
+        <v>9.19</v>
+      </c>
+      <c r="C238" t="s">
+        <v>25</v>
+      </c>
+      <c r="E238" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>230</v>
+      </c>
+      <c r="B239">
+        <v>8.6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>25</v>
+      </c>
+      <c r="E239" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>231</v>
+      </c>
+      <c r="B240">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="C240" t="s">
+        <v>25</v>
+      </c>
+      <c r="D240" t="s">
+        <v>4</v>
+      </c>
+      <c r="E240" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>231</v>
+      </c>
+      <c r="B241">
+        <v>5.98</v>
+      </c>
+      <c r="C241" t="s">
+        <v>4</v>
+      </c>
+      <c r="D241" t="s">
+        <v>4</v>
+      </c>
+      <c r="E241" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>232</v>
+      </c>
+      <c r="B242">
+        <v>8.99</v>
+      </c>
+      <c r="C242" t="s">
+        <v>25</v>
+      </c>
+      <c r="E242" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>233</v>
+      </c>
+      <c r="B243">
+        <v>10.3</v>
+      </c>
+      <c r="C243" t="s">
+        <v>25</v>
+      </c>
+      <c r="E243" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>234</v>
+      </c>
+      <c r="B244">
+        <v>10.6</v>
+      </c>
+      <c r="C244" t="s">
+        <v>25</v>
+      </c>
+      <c r="E244" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>235</v>
+      </c>
+      <c r="B245">
+        <v>9.01</v>
+      </c>
+      <c r="C245" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245" t="s">
+        <v>4</v>
+      </c>
+      <c r="E245" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>235</v>
+      </c>
+      <c r="B246">
+        <v>6.28</v>
+      </c>
+      <c r="C246" t="s">
+        <v>4</v>
+      </c>
+      <c r="D246" t="s">
+        <v>4</v>
+      </c>
+      <c r="E246" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>236</v>
+      </c>
+      <c r="B247">
+        <v>12.51</v>
+      </c>
+      <c r="C247" t="s">
+        <v>25</v>
+      </c>
+      <c r="E247" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>237</v>
+      </c>
+      <c r="B248">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="C248" t="s">
+        <v>25</v>
+      </c>
+      <c r="E248" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>238</v>
+      </c>
+      <c r="B249">
+        <v>9.07</v>
+      </c>
+      <c r="C249" t="s">
+        <v>25</v>
+      </c>
+      <c r="E249" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>239</v>
+      </c>
+      <c r="B250">
+        <v>9.6</v>
+      </c>
+      <c r="C250" t="s">
+        <v>25</v>
+      </c>
+      <c r="E250" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>240</v>
+      </c>
+      <c r="B251">
+        <v>14.47</v>
+      </c>
+      <c r="C251" t="s">
+        <v>25</v>
+      </c>
+      <c r="E251" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>241</v>
+      </c>
+      <c r="B252">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="C252" t="s">
+        <v>25</v>
+      </c>
+      <c r="E252" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>242</v>
+      </c>
+      <c r="B253">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="C253" t="s">
+        <v>25</v>
+      </c>
+      <c r="E253" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>243</v>
+      </c>
+      <c r="B254">
+        <v>9.75</v>
+      </c>
+      <c r="C254" t="s">
+        <v>25</v>
+      </c>
+      <c r="E254" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>244</v>
+      </c>
+      <c r="B255">
+        <v>11.62</v>
+      </c>
+      <c r="C255" t="s">
+        <v>25</v>
+      </c>
+      <c r="D255" t="s">
+        <v>4</v>
+      </c>
+      <c r="E255" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>244</v>
+      </c>
+      <c r="B256">
+        <v>6.24</v>
+      </c>
+      <c r="C256" t="s">
+        <v>4</v>
+      </c>
+      <c r="D256" t="s">
+        <v>4</v>
+      </c>
+      <c r="E256" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>245</v>
+      </c>
+      <c r="B257">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="C257" t="s">
+        <v>25</v>
+      </c>
+      <c r="E257" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>246</v>
+      </c>
+      <c r="B258">
+        <v>9.68</v>
+      </c>
+      <c r="C258" t="s">
+        <v>25</v>
+      </c>
+      <c r="D258" t="s">
+        <v>4</v>
+      </c>
+      <c r="E258" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>246</v>
+      </c>
+      <c r="B259">
+        <v>6.45</v>
+      </c>
+      <c r="C259" t="s">
+        <v>4</v>
+      </c>
+      <c r="D259" t="s">
+        <v>4</v>
+      </c>
+      <c r="E259" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>247</v>
+      </c>
+      <c r="B260">
+        <v>9.9</v>
+      </c>
+      <c r="C260" t="s">
+        <v>25</v>
+      </c>
+      <c r="E260" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>248</v>
+      </c>
+      <c r="B261">
+        <v>10.1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>25</v>
+      </c>
+      <c r="E261" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>249</v>
+      </c>
+      <c r="B262">
+        <v>10.42</v>
+      </c>
+      <c r="C262" t="s">
+        <v>25</v>
+      </c>
+      <c r="E262" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>250</v>
+      </c>
+      <c r="B263">
+        <v>12.56</v>
+      </c>
+      <c r="C263" t="s">
+        <v>25</v>
+      </c>
+      <c r="E263" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>251</v>
+      </c>
+      <c r="B264">
+        <v>11.36</v>
+      </c>
+      <c r="C264" t="s">
+        <v>25</v>
+      </c>
+      <c r="E264" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>252</v>
+      </c>
+      <c r="B265">
+        <v>12.87</v>
+      </c>
+      <c r="C265" t="s">
+        <v>25</v>
+      </c>
+      <c r="E265" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>253</v>
+      </c>
+      <c r="B266">
+        <v>8.83</v>
+      </c>
+      <c r="C266" t="s">
+        <v>25</v>
+      </c>
+      <c r="E266" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data_Moities/Fecundity.xlsx
+++ b/Data_Moities/Fecundity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardhonor/Documents/R/masters_thesis/Synthesis/Data_Moities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F0F73C-D905-5647-9628-C8BC1DD0E44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08BD8B3-489A-A348-B474-0B016E99484F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{3BBC4001-F2E5-6945-A434-591B9071637E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="316">
   <si>
     <t>Tag</t>
   </si>
@@ -104,18 +104,12 @@
     <t>maple/cnt§1</t>
   </si>
   <si>
-    <t>in a GM normal bag</t>
-  </si>
-  <si>
     <t>c§JBBLB2/1/20§Q§208</t>
   </si>
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>in a maple bag</t>
-  </si>
-  <si>
     <t>c§KVEDG1/1/80§Q§285</t>
   </si>
   <si>
@@ -380,9 +374,6 @@
     <t>b§JARI1/1/80§Q§167</t>
   </si>
   <si>
-    <t xml:space="preserve">in a gm bag. </t>
-  </si>
-  <si>
     <t>c§WSSWM3/1/0§Q§568</t>
   </si>
   <si>
@@ -467,12 +458,6 @@
     <t>c§VRPET2/3/20§Q§521</t>
   </si>
   <si>
-    <t>a§BWPEM1/9/0§Q§2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">possible error -- no label in bag but only one left.  </t>
-  </si>
-  <si>
     <t>d§JBCHY1/1/50§Q§273</t>
   </si>
   <si>
@@ -795,6 +780,207 @@
   </si>
   <si>
     <t>b§KVEDG1/1/80§Q§281</t>
+  </si>
+  <si>
+    <t>d§JWBOY/2/80§Q§256</t>
+  </si>
+  <si>
+    <t>d§JBBLB2/1/20§Q§212</t>
+  </si>
+  <si>
+    <t>b§SMAKC1/B§N§437</t>
+  </si>
+  <si>
+    <t>maple/cnt§16</t>
+  </si>
+  <si>
+    <t>c§KVEDG1/1/80§Q§289</t>
+  </si>
+  <si>
+    <t>c§WSSWM3/1/0§Q§567</t>
+  </si>
+  <si>
+    <t>b§VRCAN/1/40§Q§486</t>
+  </si>
+  <si>
+    <t>d§KVEDG1/1/80§Q§295</t>
+  </si>
+  <si>
+    <t>e§MAVBEL2/1/20§N§333</t>
+  </si>
+  <si>
+    <t>e|JBCHY1-1-50|?</t>
+  </si>
+  <si>
+    <t>b§EFCC2/4/80§Q§140</t>
+  </si>
+  <si>
+    <t>maple/cnt§8</t>
+  </si>
+  <si>
+    <t>c§BWPEM1/9/0§Q§11</t>
+  </si>
+  <si>
+    <t>maple/cnt§26</t>
+  </si>
+  <si>
+    <t>maple/cnt§12</t>
+  </si>
+  <si>
+    <t>c§VRCAN/1/40§Q§495</t>
+  </si>
+  <si>
+    <t>e§RULEB1/20§N§428</t>
+  </si>
+  <si>
+    <t>maple/cnt§24</t>
+  </si>
+  <si>
+    <t>b§PDVRT1/20§Q§408</t>
+  </si>
+  <si>
+    <t>a§WSSWM3/1/0§Q§559</t>
+  </si>
+  <si>
+    <t>b§SMITH1/20§Q§459</t>
+  </si>
+  <si>
+    <t>d§SMAKC1/B§N§435</t>
+  </si>
+  <si>
+    <t>d§EFCC2/4/80§Q§155</t>
+  </si>
+  <si>
+    <t>b§CRSOSO/3/40§Q§75</t>
+  </si>
+  <si>
+    <t>c§JBCHY1/1/50§Q§234</t>
+  </si>
+  <si>
+    <t>maple/cnt§10</t>
+  </si>
+  <si>
+    <t>a§JWBOY/2/80§Q§257</t>
+  </si>
+  <si>
+    <t>f§JBCHY1/1/50§Q§249</t>
+  </si>
+  <si>
+    <t>c§MHBUR1/4/20§Q§335</t>
+  </si>
+  <si>
+    <t>maple/cnt§29</t>
+  </si>
+  <si>
+    <t>maple/cnt§13</t>
+  </si>
+  <si>
+    <t>b§MAVBEL2/1/20§N§315</t>
+  </si>
+  <si>
+    <t>c§JBCHY1/1/50§Q§243</t>
+  </si>
+  <si>
+    <t>b§VRPET2/3/20§Q§512</t>
+  </si>
+  <si>
+    <t>d§CBMCK1/3/60§N§i116</t>
+  </si>
+  <si>
+    <t>e§MHNAT1/2/0§Q§365</t>
+  </si>
+  <si>
+    <t>c§JBCHY1/1/50§Q§232</t>
+  </si>
+  <si>
+    <t>d§MSMID1/1/20§Q§396</t>
+  </si>
+  <si>
+    <t>b§VRPET2/3/20§Q§515</t>
+  </si>
+  <si>
+    <t>c§JBCHY1/1/50§Q§231</t>
+  </si>
+  <si>
+    <t>c§KVEDG1/1/80§Q§286</t>
+  </si>
+  <si>
+    <t>d§VRPET2/3/20§Q§514</t>
+  </si>
+  <si>
+    <t>d§BWPEM1/9/0§Q§25</t>
+  </si>
+  <si>
+    <t>d§MHBUR1/4/20§Q§355</t>
+  </si>
+  <si>
+    <t>e§DVGM/20§Q§130</t>
+  </si>
+  <si>
+    <t>d§CRSOSO/3/40§Q§64</t>
+  </si>
+  <si>
+    <t>c§VRCAN/1/40§Q§497</t>
+  </si>
+  <si>
+    <t>b§JKFRS1/6/0§V§i121</t>
+  </si>
+  <si>
+    <t>c§CWRIC2/X2§Q§93</t>
+  </si>
+  <si>
+    <t>c§SEBRN/1/20§N§i148</t>
+  </si>
+  <si>
+    <t>b§WSSWM3/3/80§V§i161</t>
+  </si>
+  <si>
+    <t>c§VSGARO1/1/0§Q§535</t>
+  </si>
+  <si>
+    <t>c§CWRIC2/X2§Q§90</t>
+  </si>
+  <si>
+    <t>a§VRPET2/3/20§Q§508</t>
+  </si>
+  <si>
+    <t>c§JBCHY1/1/50§Q§225</t>
+  </si>
+  <si>
+    <t>d|NSRIB1-2-40|V|i144</t>
+  </si>
+  <si>
+    <t>b§MSMID1/1/20§Q§379</t>
+  </si>
+  <si>
+    <t>d§SMAKC1/B§N§445</t>
+  </si>
+  <si>
+    <t>b§CRSOSO/3/40§Q§74</t>
+  </si>
+  <si>
+    <t>d§VRPET2/3/20§Q§530</t>
+  </si>
+  <si>
+    <t>e§JWBOY/2/80§Q§263</t>
+  </si>
+  <si>
+    <t>e§JARI1/1/80§Q§170</t>
+  </si>
+  <si>
+    <t>b§VRCAN/1/40§Q§481</t>
+  </si>
+  <si>
+    <t>RegGM</t>
+  </si>
+  <si>
+    <t>BigGM</t>
+  </si>
+  <si>
+    <t>MapleBag</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1152,15 +1338,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE9D37E-007A-E94D-8E3B-6BFE43886E1F}">
-  <dimension ref="A1:E266"/>
+  <dimension ref="A1:H337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="H193" sqref="H193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1176,8 +1362,17 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1188,10 +1383,19 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>5.74</v>
+      </c>
+      <c r="G2">
+        <v>8.57</v>
+      </c>
+      <c r="H2">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1199,13 +1403,13 @@
         <v>14.29</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1213,13 +1417,13 @@
         <v>14.4</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1227,13 +1431,13 @@
         <v>12.1</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1244,10 +1448,10 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1255,13 +1459,13 @@
         <v>18.21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1269,13 +1473,13 @@
         <v>19.98</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1286,10 +1490,10 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1300,10 +1504,10 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1314,10 +1518,10 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1328,10 +1532,10 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1342,10 +1546,10 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1356,10 +1560,10 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1370,10 +1574,10 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1384,7 +1588,7 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1398,7 +1602,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1412,12 +1616,12 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>6.24</v>
@@ -1429,29 +1633,29 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>7.06</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>6.51</v>
@@ -1460,12 +1664,12 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>6.38</v>
@@ -1474,12 +1678,12 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>7.38</v>
@@ -1488,12 +1692,12 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>6.66</v>
@@ -1502,12 +1706,12 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>6.34</v>
@@ -1516,12 +1720,12 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>6.32</v>
@@ -1530,12 +1734,12 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>6.3</v>
@@ -1544,12 +1748,12 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>6.69</v>
@@ -1558,12 +1762,12 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>6.39</v>
@@ -1572,18 +1776,18 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>15.53</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1591,13 +1795,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>14.41</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1605,13 +1809,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>15.41</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -1622,7 +1826,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>6.61</v>
@@ -1634,18 +1838,18 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>14.42</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1653,13 +1857,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>18.440000000000001</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1667,7 +1871,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>6.63</v>
@@ -1676,43 +1880,43 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>9.76</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>11.98</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>6.18</v>
@@ -1724,29 +1928,29 @@
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>9.33</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>6.57</v>
@@ -1758,43 +1962,43 @@
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>8.64</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>11.44</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>6.41</v>
@@ -1806,197 +2010,197 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>8.73</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>8.8800000000000008</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>17.079999999999998</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>10.53</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>9.42</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>8.94</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>10.18</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>9.91</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>17.309999999999999</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>14.02</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>11.78</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>10.43</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>16.45</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>6.64</v>
@@ -2013,13 +2217,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>15.13</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -2027,13 +2231,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>14.32</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -2041,13 +2245,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>14.68</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
@@ -2055,13 +2259,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>15.53</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -2072,7 +2276,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>8.81</v>
@@ -2084,18 +2288,18 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>15.11</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
@@ -2103,13 +2307,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>25.53</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -2120,7 +2324,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66">
         <v>6.12</v>
@@ -2132,18 +2336,18 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67">
         <v>14.58</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
@@ -2151,13 +2355,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68">
         <v>16.91</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
@@ -2165,7 +2369,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69">
         <v>6.29</v>
@@ -2174,12 +2378,12 @@
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70">
         <v>7</v>
@@ -2188,12 +2392,12 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B71">
         <v>7.16</v>
@@ -2202,12 +2406,12 @@
         <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72">
         <v>6.49</v>
@@ -2216,12 +2420,12 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73">
         <v>6.55</v>
@@ -2230,12 +2434,12 @@
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74">
         <v>6.71</v>
@@ -2244,12 +2448,12 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -2258,12 +2462,12 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76">
         <v>6.64</v>
@@ -2272,12 +2476,12 @@
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77">
         <v>6.39</v>
@@ -2286,12 +2490,12 @@
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78">
         <v>6.53</v>
@@ -2300,12 +2504,12 @@
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79">
         <v>6.7</v>
@@ -2314,12 +2518,12 @@
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80">
         <v>7.12</v>
@@ -2328,12 +2532,12 @@
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81">
         <v>6.05</v>
@@ -2342,12 +2546,12 @@
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82">
         <v>7.46</v>
@@ -2356,12 +2560,12 @@
         <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83">
         <v>6.32</v>
@@ -2370,12 +2574,12 @@
         <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84">
         <v>6.44</v>
@@ -2384,12 +2588,12 @@
         <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85">
         <v>6.4</v>
@@ -2398,12 +2602,12 @@
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86">
         <v>6.95</v>
@@ -2412,12 +2616,12 @@
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87">
         <v>7.33</v>
@@ -2426,12 +2630,12 @@
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88">
         <v>6.54</v>
@@ -2440,12 +2644,12 @@
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89">
         <v>6.4</v>
@@ -2454,12 +2658,12 @@
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B90">
         <v>6.25</v>
@@ -2468,12 +2672,12 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B91">
         <v>6.44</v>
@@ -2482,12 +2686,12 @@
         <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B92">
         <v>6.46</v>
@@ -2496,12 +2700,12 @@
         <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93">
         <v>6.19</v>
@@ -2510,12 +2714,12 @@
         <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94">
         <v>7.23</v>
@@ -2524,12 +2728,12 @@
         <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B95">
         <v>6.76</v>
@@ -2538,12 +2742,12 @@
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B96">
         <v>6.2</v>
@@ -2552,12 +2756,12 @@
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B97">
         <v>6.97</v>
@@ -2566,12 +2770,12 @@
         <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B98">
         <v>6.28</v>
@@ -2580,12 +2784,12 @@
         <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B99">
         <v>6.75</v>
@@ -2594,12 +2798,12 @@
         <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B100">
         <v>6.38</v>
@@ -2608,12 +2812,12 @@
         <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B101">
         <v>6.5</v>
@@ -2622,12 +2826,12 @@
         <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B102">
         <v>6.28</v>
@@ -2636,12 +2840,12 @@
         <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B103">
         <v>7.22</v>
@@ -2650,12 +2854,12 @@
         <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B104">
         <v>6.44</v>
@@ -2664,12 +2868,12 @@
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B105">
         <v>6.1</v>
@@ -2678,12 +2882,12 @@
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B106">
         <v>6.6</v>
@@ -2692,12 +2896,12 @@
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B107">
         <v>6.78</v>
@@ -2706,12 +2910,12 @@
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B108">
         <v>6.94</v>
@@ -2720,12 +2924,12 @@
         <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B109">
         <v>6.01</v>
@@ -2734,12 +2938,12 @@
         <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B110">
         <v>7.19</v>
@@ -2748,12 +2952,12 @@
         <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B111">
         <v>7</v>
@@ -2762,12 +2966,12 @@
         <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B112">
         <v>6.8</v>
@@ -2776,12 +2980,12 @@
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B113">
         <v>6.54</v>
@@ -2790,12 +2994,12 @@
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B114">
         <v>6.97</v>
@@ -2804,12 +3008,12 @@
         <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B115">
         <v>6.56</v>
@@ -2818,12 +3022,12 @@
         <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B116">
         <v>9.4700000000000006</v>
@@ -2832,71 +3036,71 @@
         <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B117">
         <v>15.82</v>
       </c>
       <c r="C117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B118">
         <v>9.25</v>
       </c>
       <c r="C118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B119">
         <v>10.210000000000001</v>
       </c>
       <c r="C119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B120">
         <v>9.1999999999999993</v>
       </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B121">
         <v>6.24</v>
@@ -2908,29 +3112,29 @@
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B122">
         <v>8.9600000000000009</v>
       </c>
       <c r="C122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D122" t="s">
         <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B123">
         <v>5.92</v>
@@ -2942,71 +3146,71 @@
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B124">
         <v>9.34</v>
       </c>
       <c r="C124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B125">
         <v>9.5</v>
       </c>
       <c r="C125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B126">
         <v>14.85</v>
       </c>
       <c r="C126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B127">
         <v>9.25</v>
       </c>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B128">
         <v>5.9</v>
@@ -3018,29 +3222,29 @@
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B129">
         <v>10.41</v>
       </c>
       <c r="C129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B130">
         <v>6.15</v>
@@ -3052,141 +3256,141 @@
         <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B131">
         <v>8.81</v>
       </c>
       <c r="C131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B132">
         <v>21.03</v>
       </c>
       <c r="C132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B133">
         <v>11.39</v>
       </c>
       <c r="C133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B134">
         <v>9.23</v>
       </c>
       <c r="C134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B135">
         <v>8.7200000000000006</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B136">
         <v>9.2799999999999994</v>
       </c>
       <c r="C136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B137">
         <v>9.1999999999999993</v>
       </c>
       <c r="C137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B138">
         <v>8.82</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B139">
         <v>13.38</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
         <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B140">
         <v>6.14</v>
@@ -3198,43 +3402,43 @@
         <v>4</v>
       </c>
       <c r="E140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B141">
         <v>10.210000000000001</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B142">
         <v>8.85</v>
       </c>
       <c r="C142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D142" t="s">
         <v>4</v>
       </c>
       <c r="E142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B143">
         <v>6.91</v>
@@ -3246,99 +3450,99 @@
         <v>4</v>
       </c>
       <c r="E143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B144">
         <v>11.64</v>
       </c>
       <c r="C144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B145">
         <v>9.32</v>
       </c>
       <c r="C145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B146">
         <v>9.64</v>
       </c>
       <c r="C146" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E146" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B147">
         <v>9.1199999999999992</v>
       </c>
       <c r="C147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B148">
         <v>15.64</v>
       </c>
       <c r="C148" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E148" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B149">
         <v>9.7200000000000006</v>
       </c>
       <c r="C149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D149" t="s">
         <v>4</v>
       </c>
       <c r="E149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B150">
         <v>6.54</v>
@@ -3350,32 +3554,35 @@
         <v>4</v>
       </c>
       <c r="E150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>144</v>
-      </c>
-      <c r="B151">
-        <v>7.06</v>
+        <v>315</v>
+      </c>
+      <c r="B151" t="s">
+        <v>315</v>
       </c>
       <c r="C151" t="s">
-        <v>4</v>
+        <v>315</v>
+      </c>
+      <c r="D151" t="s">
+        <v>315</v>
       </c>
       <c r="E151" t="s">
-        <v>145</v>
+        <v>315</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B152">
         <v>15.05</v>
       </c>
       <c r="C152" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E152" t="s">
         <v>4</v>
@@ -3383,13 +3590,13 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B153">
         <v>15.37</v>
       </c>
       <c r="C153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E153" t="s">
         <v>4</v>
@@ -3397,13 +3604,13 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B154">
         <v>15.3</v>
       </c>
       <c r="C154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E154" t="s">
         <v>4</v>
@@ -3411,13 +3618,13 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B155">
         <v>14.33</v>
       </c>
       <c r="C155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E155" t="s">
         <v>4</v>
@@ -3425,13 +3632,13 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B156">
         <v>14.48</v>
       </c>
       <c r="C156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E156" t="s">
         <v>4</v>
@@ -3439,13 +3646,13 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B157">
         <v>16.13</v>
       </c>
       <c r="C157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E157" t="s">
         <v>4</v>
@@ -3453,13 +3660,13 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B158">
         <v>16.190000000000001</v>
       </c>
       <c r="C158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E158" t="s">
         <v>4</v>
@@ -3467,13 +3674,13 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B159">
         <v>15.85</v>
       </c>
       <c r="C159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E159" t="s">
         <v>4</v>
@@ -3481,13 +3688,13 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B160">
         <v>15.12</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E160" t="s">
         <v>4</v>
@@ -3495,13 +3702,13 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B161">
         <v>15.43</v>
       </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E161" t="s">
         <v>4</v>
@@ -3509,13 +3716,13 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B162">
         <v>15.44</v>
       </c>
       <c r="C162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E162" t="s">
         <v>4</v>
@@ -3523,13 +3730,13 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B163">
         <v>16.350000000000001</v>
       </c>
       <c r="C163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E163" t="s">
         <v>4</v>
@@ -3537,13 +3744,13 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B164">
         <v>17.3</v>
       </c>
       <c r="C164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E164" t="s">
         <v>4</v>
@@ -3551,13 +3758,13 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B165">
         <v>15.1</v>
       </c>
       <c r="C165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E165" t="s">
         <v>4</v>
@@ -3565,13 +3772,13 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B166">
         <v>20.420000000000002</v>
       </c>
       <c r="C166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D166" t="s">
         <v>4</v>
@@ -3582,7 +3789,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B167">
         <v>6.22</v>
@@ -3594,18 +3801,18 @@
         <v>4</v>
       </c>
       <c r="E167" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B168">
         <v>14.46</v>
       </c>
       <c r="C168" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E168" t="s">
         <v>4</v>
@@ -3613,13 +3820,13 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B169">
         <v>14.64</v>
       </c>
       <c r="C169" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E169" t="s">
         <v>4</v>
@@ -3627,13 +3834,13 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B170">
         <v>15.04</v>
       </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E170" t="s">
         <v>4</v>
@@ -3641,13 +3848,13 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B171">
         <v>14.45</v>
       </c>
       <c r="C171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E171" t="s">
         <v>4</v>
@@ -3655,7 +3862,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B172">
         <v>6.33</v>
@@ -3664,12 +3871,12 @@
         <v>4</v>
       </c>
       <c r="E172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B173">
         <v>6.6</v>
@@ -3678,12 +3885,12 @@
         <v>4</v>
       </c>
       <c r="E173" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B174">
         <v>6.57</v>
@@ -3692,12 +3899,12 @@
         <v>4</v>
       </c>
       <c r="E174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B175">
         <v>7.37</v>
@@ -3706,12 +3913,12 @@
         <v>4</v>
       </c>
       <c r="E175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B176">
         <v>7.17</v>
@@ -3720,12 +3927,12 @@
         <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B177">
         <v>5.72</v>
@@ -3734,12 +3941,12 @@
         <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B178">
         <v>6.12</v>
@@ -3748,12 +3955,12 @@
         <v>4</v>
       </c>
       <c r="E178" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B179">
         <v>6.33</v>
@@ -3762,12 +3969,12 @@
         <v>4</v>
       </c>
       <c r="E179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B180">
         <v>6.75</v>
@@ -3776,12 +3983,12 @@
         <v>4</v>
       </c>
       <c r="E180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B181">
         <v>6.9</v>
@@ -3790,12 +3997,12 @@
         <v>4</v>
       </c>
       <c r="E181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B182">
         <v>6.13</v>
@@ -3804,12 +4011,12 @@
         <v>4</v>
       </c>
       <c r="E182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B183">
         <v>6.79</v>
@@ -3818,12 +4025,12 @@
         <v>4</v>
       </c>
       <c r="E183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B184">
         <v>6.59</v>
@@ -3832,12 +4039,12 @@
         <v>4</v>
       </c>
       <c r="E184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B185">
         <v>6.14</v>
@@ -3846,12 +4053,12 @@
         <v>4</v>
       </c>
       <c r="E185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B186">
         <v>6.04</v>
@@ -3860,12 +4067,12 @@
         <v>4</v>
       </c>
       <c r="E186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B187">
         <v>6.21</v>
@@ -3874,12 +4081,12 @@
         <v>4</v>
       </c>
       <c r="E187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B188">
         <v>6.06</v>
@@ -3888,12 +4095,12 @@
         <v>4</v>
       </c>
       <c r="E188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B189">
         <v>6.21</v>
@@ -3902,12 +4109,12 @@
         <v>4</v>
       </c>
       <c r="E189" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B190">
         <v>6.38</v>
@@ -3916,12 +4123,12 @@
         <v>4</v>
       </c>
       <c r="E190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B191">
         <v>6.1</v>
@@ -3930,12 +4137,12 @@
         <v>4</v>
       </c>
       <c r="E191" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B192">
         <v>6.45</v>
@@ -3944,12 +4151,12 @@
         <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B193">
         <v>6.56</v>
@@ -3958,12 +4165,12 @@
         <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B194">
         <v>6.33</v>
@@ -3972,12 +4179,12 @@
         <v>4</v>
       </c>
       <c r="E194" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B195">
         <v>6.48</v>
@@ -3986,12 +4193,12 @@
         <v>4</v>
       </c>
       <c r="E195" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B196">
         <v>6.28</v>
@@ -4000,12 +4207,12 @@
         <v>4</v>
       </c>
       <c r="E196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B197">
         <v>6.11</v>
@@ -4014,12 +4221,12 @@
         <v>4</v>
       </c>
       <c r="E197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B198">
         <v>5.95</v>
@@ -4028,12 +4235,12 @@
         <v>4</v>
       </c>
       <c r="E198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B199">
         <v>6.52</v>
@@ -4042,12 +4249,12 @@
         <v>4</v>
       </c>
       <c r="E199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B200">
         <v>6.38</v>
@@ -4056,12 +4263,12 @@
         <v>4</v>
       </c>
       <c r="E200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B201">
         <v>5.96</v>
@@ -4070,12 +4277,12 @@
         <v>4</v>
       </c>
       <c r="E201" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B202">
         <v>6.89</v>
@@ -4084,12 +4291,12 @@
         <v>4</v>
       </c>
       <c r="E202" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B203">
         <v>6.99</v>
@@ -4098,12 +4305,12 @@
         <v>4</v>
       </c>
       <c r="E203" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B204">
         <v>6.39</v>
@@ -4112,12 +4319,12 @@
         <v>4</v>
       </c>
       <c r="E204" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B205">
         <v>6.36</v>
@@ -4126,12 +4333,12 @@
         <v>4</v>
       </c>
       <c r="E205" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B206">
         <v>6.33</v>
@@ -4140,12 +4347,12 @@
         <v>4</v>
       </c>
       <c r="E206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B207">
         <v>6.12</v>
@@ -4154,12 +4361,12 @@
         <v>4</v>
       </c>
       <c r="E207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B208">
         <v>6.4</v>
@@ -4168,12 +4375,12 @@
         <v>4</v>
       </c>
       <c r="E208" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B209">
         <v>6.33</v>
@@ -4182,12 +4389,12 @@
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B210">
         <v>6.66</v>
@@ -4196,12 +4403,12 @@
         <v>4</v>
       </c>
       <c r="E210" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B211">
         <v>6.44</v>
@@ -4210,12 +4417,12 @@
         <v>4</v>
       </c>
       <c r="E211" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B212">
         <v>7.6</v>
@@ -4224,12 +4431,12 @@
         <v>4</v>
       </c>
       <c r="E212" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B213">
         <v>6.42</v>
@@ -4238,12 +4445,12 @@
         <v>4</v>
       </c>
       <c r="E213" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B214">
         <v>6.3</v>
@@ -4252,12 +4459,12 @@
         <v>4</v>
       </c>
       <c r="E214" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B215">
         <v>6.42</v>
@@ -4266,12 +4473,12 @@
         <v>4</v>
       </c>
       <c r="E215" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B216">
         <v>5.99</v>
@@ -4280,12 +4487,12 @@
         <v>4</v>
       </c>
       <c r="E216" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B217">
         <v>6.37</v>
@@ -4294,12 +4501,12 @@
         <v>4</v>
       </c>
       <c r="E217" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B218">
         <v>7.21</v>
@@ -4308,12 +4515,12 @@
         <v>4</v>
       </c>
       <c r="E218" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B219">
         <v>6.33</v>
@@ -4322,12 +4529,12 @@
         <v>4</v>
       </c>
       <c r="E219" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B220">
         <v>6.35</v>
@@ -4336,12 +4543,12 @@
         <v>4</v>
       </c>
       <c r="E220" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B221">
         <v>6.39</v>
@@ -4350,12 +4557,12 @@
         <v>4</v>
       </c>
       <c r="E221" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B222">
         <v>7.34</v>
@@ -4364,12 +4571,12 @@
         <v>4</v>
       </c>
       <c r="E222" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B223">
         <v>7.08</v>
@@ -4378,12 +4585,12 @@
         <v>4</v>
       </c>
       <c r="E223" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B224">
         <v>6.73</v>
@@ -4392,12 +4599,12 @@
         <v>4</v>
       </c>
       <c r="E224" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B225">
         <v>6.67</v>
@@ -4406,12 +4613,12 @@
         <v>4</v>
       </c>
       <c r="E225" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B226">
         <v>6.5</v>
@@ -4420,71 +4627,71 @@
         <v>4</v>
       </c>
       <c r="E226" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B227">
         <v>9.01</v>
       </c>
       <c r="C227" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E227" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B228">
         <v>9.92</v>
       </c>
       <c r="C228" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E228" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B229">
         <v>10.01</v>
       </c>
       <c r="C229" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E229" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B230">
         <v>8.64</v>
       </c>
       <c r="C230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D230" t="s">
         <v>4</v>
       </c>
       <c r="E230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B231">
         <v>6.46</v>
@@ -4496,71 +4703,71 @@
         <v>4</v>
       </c>
       <c r="E231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B232">
         <v>18.96</v>
       </c>
       <c r="C232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B233">
         <v>9.4700000000000006</v>
       </c>
       <c r="C233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B234">
         <v>19.37</v>
       </c>
       <c r="C234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B235">
         <v>9.51</v>
       </c>
       <c r="C235" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D235" t="s">
         <v>4</v>
       </c>
       <c r="E235" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B236">
         <v>6.61</v>
@@ -4572,71 +4779,71 @@
         <v>4</v>
       </c>
       <c r="E236" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B237">
         <v>12.25</v>
       </c>
       <c r="C237" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E237" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B238">
         <v>9.19</v>
       </c>
       <c r="C238" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E238" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B239">
         <v>8.6</v>
       </c>
       <c r="C239" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E239" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B240">
         <v>8.9700000000000006</v>
       </c>
       <c r="C240" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D240" t="s">
         <v>4</v>
       </c>
       <c r="E240" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B241">
         <v>5.98</v>
@@ -4648,71 +4855,71 @@
         <v>4</v>
       </c>
       <c r="E241" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B242">
         <v>8.99</v>
       </c>
       <c r="C242" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E242" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B243">
         <v>10.3</v>
       </c>
       <c r="C243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B244">
         <v>10.6</v>
       </c>
       <c r="C244" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E244" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B245">
         <v>9.01</v>
       </c>
       <c r="C245" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D245" t="s">
         <v>4</v>
       </c>
       <c r="E245" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B246">
         <v>6.28</v>
@@ -4724,141 +4931,141 @@
         <v>4</v>
       </c>
       <c r="E246" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B247">
         <v>12.51</v>
       </c>
       <c r="C247" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E247" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B248">
         <v>10.029999999999999</v>
       </c>
       <c r="C248" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E248" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B249">
         <v>9.07</v>
       </c>
       <c r="C249" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E249" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B250">
         <v>9.6</v>
       </c>
       <c r="C250" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E250" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B251">
         <v>14.47</v>
       </c>
       <c r="C251" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E251" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B252">
         <v>9.8699999999999992</v>
       </c>
       <c r="C252" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E252" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B253">
         <v>17.829999999999998</v>
       </c>
       <c r="C253" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E253" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B254">
         <v>9.75</v>
       </c>
       <c r="C254" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E254" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B255">
         <v>11.62</v>
       </c>
       <c r="C255" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D255" t="s">
         <v>4</v>
       </c>
       <c r="E255" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B256">
         <v>6.24</v>
@@ -4870,43 +5077,43 @@
         <v>4</v>
       </c>
       <c r="E256" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B257">
         <v>10.210000000000001</v>
       </c>
       <c r="C257" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E257" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B258">
         <v>9.68</v>
       </c>
       <c r="C258" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D258" t="s">
         <v>4</v>
       </c>
       <c r="E258" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B259">
         <v>6.45</v>
@@ -4918,105 +5125,1147 @@
         <v>4</v>
       </c>
       <c r="E259" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B260">
         <v>9.9</v>
       </c>
       <c r="C260" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E260" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B261">
         <v>10.1</v>
       </c>
       <c r="C261" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E261" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B262">
         <v>10.42</v>
       </c>
       <c r="C262" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E262" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B263">
         <v>12.56</v>
       </c>
       <c r="C263" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E263" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B264">
         <v>11.36</v>
       </c>
       <c r="C264" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E264" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B265">
         <v>12.87</v>
       </c>
       <c r="C265" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E265" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B266">
         <v>8.83</v>
       </c>
       <c r="C266" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E266" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>249</v>
+      </c>
+      <c r="B267">
+        <v>14.7</v>
+      </c>
+      <c r="C267" t="s">
+        <v>24</v>
+      </c>
+      <c r="E267" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>250</v>
+      </c>
+      <c r="B268">
+        <v>14.46</v>
+      </c>
+      <c r="C268" t="s">
+        <v>24</v>
+      </c>
+      <c r="E268" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>251</v>
+      </c>
+      <c r="B269">
+        <v>6.44</v>
+      </c>
+      <c r="C269" t="s">
+        <v>4</v>
+      </c>
+      <c r="E269" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>252</v>
+      </c>
+      <c r="B270">
+        <v>6.97</v>
+      </c>
+      <c r="C270" t="s">
+        <v>4</v>
+      </c>
+      <c r="E270" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>253</v>
+      </c>
+      <c r="B271">
+        <v>6.56</v>
+      </c>
+      <c r="C271" t="s">
+        <v>4</v>
+      </c>
+      <c r="E271" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>254</v>
+      </c>
+      <c r="B272">
+        <v>6.73</v>
+      </c>
+      <c r="C272" t="s">
+        <v>4</v>
+      </c>
+      <c r="E272" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>255</v>
+      </c>
+      <c r="B273">
+        <v>6.34</v>
+      </c>
+      <c r="C273" t="s">
+        <v>4</v>
+      </c>
+      <c r="E273" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>256</v>
+      </c>
+      <c r="B274">
+        <v>6.33</v>
+      </c>
+      <c r="C274" t="s">
+        <v>4</v>
+      </c>
+      <c r="E274" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>257</v>
+      </c>
+      <c r="B275">
+        <v>6.39</v>
+      </c>
+      <c r="C275" t="s">
+        <v>4</v>
+      </c>
+      <c r="E275" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>258</v>
+      </c>
+      <c r="B276">
+        <v>6.56</v>
+      </c>
+      <c r="C276" t="s">
+        <v>4</v>
+      </c>
+      <c r="E276" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>259</v>
+      </c>
+      <c r="B277">
+        <v>6.25</v>
+      </c>
+      <c r="C277" t="s">
+        <v>4</v>
+      </c>
+      <c r="E277" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>260</v>
+      </c>
+      <c r="B278">
+        <v>6.78</v>
+      </c>
+      <c r="C278" t="s">
+        <v>4</v>
+      </c>
+      <c r="E278" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>261</v>
+      </c>
+      <c r="B279">
+        <v>6.37</v>
+      </c>
+      <c r="C279" t="s">
+        <v>4</v>
+      </c>
+      <c r="E279" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>262</v>
+      </c>
+      <c r="B280">
+        <v>7.21</v>
+      </c>
+      <c r="C280" t="s">
+        <v>4</v>
+      </c>
+      <c r="E280" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>263</v>
+      </c>
+      <c r="B281">
+        <v>6.93</v>
+      </c>
+      <c r="C281" t="s">
+        <v>4</v>
+      </c>
+      <c r="E281" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>264</v>
+      </c>
+      <c r="B282">
+        <v>6.44</v>
+      </c>
+      <c r="C282" t="s">
+        <v>4</v>
+      </c>
+      <c r="E282" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>265</v>
+      </c>
+      <c r="B283">
+        <v>6.21</v>
+      </c>
+      <c r="C283" t="s">
+        <v>4</v>
+      </c>
+      <c r="E283" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>266</v>
+      </c>
+      <c r="B284">
+        <v>6.36</v>
+      </c>
+      <c r="C284" t="s">
+        <v>4</v>
+      </c>
+      <c r="E284" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>267</v>
+      </c>
+      <c r="B285">
+        <v>6.66</v>
+      </c>
+      <c r="C285" t="s">
+        <v>4</v>
+      </c>
+      <c r="E285" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>268</v>
+      </c>
+      <c r="B286">
+        <v>6.46</v>
+      </c>
+      <c r="C286" t="s">
+        <v>4</v>
+      </c>
+      <c r="E286" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>269</v>
+      </c>
+      <c r="B287">
+        <v>6.7</v>
+      </c>
+      <c r="C287" t="s">
+        <v>4</v>
+      </c>
+      <c r="E287" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>270</v>
+      </c>
+      <c r="B288">
+        <v>6.21</v>
+      </c>
+      <c r="C288" t="s">
+        <v>4</v>
+      </c>
+      <c r="E288" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>271</v>
+      </c>
+      <c r="B289">
+        <v>6.59</v>
+      </c>
+      <c r="C289" t="s">
+        <v>4</v>
+      </c>
+      <c r="E289" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>272</v>
+      </c>
+      <c r="B290">
+        <v>6.5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>4</v>
+      </c>
+      <c r="E290" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>273</v>
+      </c>
+      <c r="B291">
+        <v>7.09</v>
+      </c>
+      <c r="C291" t="s">
+        <v>4</v>
+      </c>
+      <c r="E291" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>274</v>
+      </c>
+      <c r="B292">
+        <v>7.33</v>
+      </c>
+      <c r="C292" t="s">
+        <v>4</v>
+      </c>
+      <c r="E292" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>275</v>
+      </c>
+      <c r="B293">
+        <v>6.48</v>
+      </c>
+      <c r="C293" t="s">
+        <v>4</v>
+      </c>
+      <c r="E293" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>276</v>
+      </c>
+      <c r="B294">
+        <v>6.83</v>
+      </c>
+      <c r="C294" t="s">
+        <v>4</v>
+      </c>
+      <c r="E294" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>277</v>
+      </c>
+      <c r="B295">
+        <v>6.14</v>
+      </c>
+      <c r="C295" t="s">
+        <v>4</v>
+      </c>
+      <c r="E295" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>278</v>
+      </c>
+      <c r="B296">
+        <v>6.87</v>
+      </c>
+      <c r="C296" t="s">
+        <v>4</v>
+      </c>
+      <c r="E296" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>279</v>
+      </c>
+      <c r="B297">
+        <v>6.73</v>
+      </c>
+      <c r="C297" t="s">
+        <v>4</v>
+      </c>
+      <c r="E297" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>280</v>
+      </c>
+      <c r="B298">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="C298" t="s">
+        <v>24</v>
+      </c>
+      <c r="E298" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>281</v>
+      </c>
+      <c r="B299">
+        <v>9.6</v>
+      </c>
+      <c r="C299" t="s">
+        <v>24</v>
+      </c>
+      <c r="D299" t="s">
+        <v>4</v>
+      </c>
+      <c r="E299" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>281</v>
+      </c>
+      <c r="B300">
+        <v>6.41</v>
+      </c>
+      <c r="C300" t="s">
+        <v>4</v>
+      </c>
+      <c r="D300" t="s">
+        <v>4</v>
+      </c>
+      <c r="E300" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>282</v>
+      </c>
+      <c r="B301">
+        <v>13.08</v>
+      </c>
+      <c r="C301" t="s">
+        <v>24</v>
+      </c>
+      <c r="E301" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>283</v>
+      </c>
+      <c r="B302">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="C302" t="s">
+        <v>24</v>
+      </c>
+      <c r="E302" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>284</v>
+      </c>
+      <c r="B303">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="C303" t="s">
+        <v>24</v>
+      </c>
+      <c r="E303" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>285</v>
+      </c>
+      <c r="B304">
+        <v>15.36</v>
+      </c>
+      <c r="C304" t="s">
+        <v>24</v>
+      </c>
+      <c r="D304" t="s">
+        <v>4</v>
+      </c>
+      <c r="E304" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>285</v>
+      </c>
+      <c r="B305">
+        <v>6.32</v>
+      </c>
+      <c r="C305" t="s">
+        <v>4</v>
+      </c>
+      <c r="D305" t="s">
+        <v>4</v>
+      </c>
+      <c r="E305" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>286</v>
+      </c>
+      <c r="B306">
+        <v>12.5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="E306" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>287</v>
+      </c>
+      <c r="B307">
+        <v>11.92</v>
+      </c>
+      <c r="C307" t="s">
+        <v>24</v>
+      </c>
+      <c r="E307" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>288</v>
+      </c>
+      <c r="B308">
+        <v>8.68</v>
+      </c>
+      <c r="C308" t="s">
+        <v>24</v>
+      </c>
+      <c r="D308" t="s">
+        <v>4</v>
+      </c>
+      <c r="E308" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>288</v>
+      </c>
+      <c r="B309">
+        <v>6.66</v>
+      </c>
+      <c r="C309" t="s">
+        <v>4</v>
+      </c>
+      <c r="D309" t="s">
+        <v>4</v>
+      </c>
+      <c r="E309" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>289</v>
+      </c>
+      <c r="B310">
+        <v>9.36</v>
+      </c>
+      <c r="C310" t="s">
+        <v>24</v>
+      </c>
+      <c r="E310" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>290</v>
+      </c>
+      <c r="B311">
+        <v>8.65</v>
+      </c>
+      <c r="C311" t="s">
+        <v>24</v>
+      </c>
+      <c r="E311" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>291</v>
+      </c>
+      <c r="B312">
+        <v>8.66</v>
+      </c>
+      <c r="C312" t="s">
+        <v>24</v>
+      </c>
+      <c r="E312" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>292</v>
+      </c>
+      <c r="B313">
+        <v>13.94</v>
+      </c>
+      <c r="C313" t="s">
+        <v>24</v>
+      </c>
+      <c r="E313" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>293</v>
+      </c>
+      <c r="B314">
+        <v>9.02</v>
+      </c>
+      <c r="C314" t="s">
+        <v>24</v>
+      </c>
+      <c r="E314" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>294</v>
+      </c>
+      <c r="B315">
+        <v>9.08</v>
+      </c>
+      <c r="C315" t="s">
+        <v>24</v>
+      </c>
+      <c r="D315" t="s">
+        <v>4</v>
+      </c>
+      <c r="E315" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>294</v>
+      </c>
+      <c r="B316">
+        <v>6.61</v>
+      </c>
+      <c r="C316" t="s">
+        <v>4</v>
+      </c>
+      <c r="D316" t="s">
+        <v>4</v>
+      </c>
+      <c r="E316" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>295</v>
+      </c>
+      <c r="B317">
+        <v>10.23</v>
+      </c>
+      <c r="C317" t="s">
+        <v>24</v>
+      </c>
+      <c r="D317" t="s">
+        <v>4</v>
+      </c>
+      <c r="E317" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>295</v>
+      </c>
+      <c r="B318">
+        <v>6.52</v>
+      </c>
+      <c r="C318" t="s">
+        <v>4</v>
+      </c>
+      <c r="D318" t="s">
+        <v>4</v>
+      </c>
+      <c r="E318" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>296</v>
+      </c>
+      <c r="B319">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="C319" t="s">
+        <v>24</v>
+      </c>
+      <c r="E319" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>297</v>
+      </c>
+      <c r="B320">
+        <v>9.58</v>
+      </c>
+      <c r="C320" t="s">
+        <v>24</v>
+      </c>
+      <c r="E320" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>298</v>
+      </c>
+      <c r="B321">
+        <v>9.85</v>
+      </c>
+      <c r="C321" t="s">
+        <v>24</v>
+      </c>
+      <c r="E321" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>299</v>
+      </c>
+      <c r="B322">
+        <v>8.99</v>
+      </c>
+      <c r="C322" t="s">
+        <v>24</v>
+      </c>
+      <c r="E322" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
+        <v>300</v>
+      </c>
+      <c r="B323">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C323" t="s">
+        <v>24</v>
+      </c>
+      <c r="E323" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="s">
+        <v>301</v>
+      </c>
+      <c r="B324">
+        <v>11.77</v>
+      </c>
+      <c r="C324" t="s">
+        <v>24</v>
+      </c>
+      <c r="E324" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" t="s">
+        <v>302</v>
+      </c>
+      <c r="B325">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C325" t="s">
+        <v>24</v>
+      </c>
+      <c r="D325" t="s">
+        <v>4</v>
+      </c>
+      <c r="E325" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" t="s">
+        <v>302</v>
+      </c>
+      <c r="B326">
+        <v>6.37</v>
+      </c>
+      <c r="C326" t="s">
+        <v>4</v>
+      </c>
+      <c r="D326" t="s">
+        <v>4</v>
+      </c>
+      <c r="E326" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" t="s">
+        <v>303</v>
+      </c>
+      <c r="B327">
+        <v>9.56</v>
+      </c>
+      <c r="C327" t="s">
+        <v>24</v>
+      </c>
+      <c r="E327" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>304</v>
+      </c>
+      <c r="B328">
+        <v>8.76</v>
+      </c>
+      <c r="C328" t="s">
+        <v>24</v>
+      </c>
+      <c r="E328" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>305</v>
+      </c>
+      <c r="B329">
+        <v>16.59</v>
+      </c>
+      <c r="C329" t="s">
+        <v>24</v>
+      </c>
+      <c r="E329" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" t="s">
+        <v>306</v>
+      </c>
+      <c r="B330">
+        <v>9.58</v>
+      </c>
+      <c r="C330" t="s">
+        <v>24</v>
+      </c>
+      <c r="D330" t="s">
+        <v>4</v>
+      </c>
+      <c r="E330" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>306</v>
+      </c>
+      <c r="B331">
+        <v>6.53</v>
+      </c>
+      <c r="C331" t="s">
+        <v>4</v>
+      </c>
+      <c r="D331" t="s">
+        <v>4</v>
+      </c>
+      <c r="E331" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>307</v>
+      </c>
+      <c r="B332">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="C332" t="s">
+        <v>24</v>
+      </c>
+      <c r="D332" t="s">
+        <v>4</v>
+      </c>
+      <c r="E332" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>307</v>
+      </c>
+      <c r="B333">
+        <v>6.36</v>
+      </c>
+      <c r="C333" t="s">
+        <v>4</v>
+      </c>
+      <c r="D333" t="s">
+        <v>4</v>
+      </c>
+      <c r="E333" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>308</v>
+      </c>
+      <c r="B334">
+        <v>13.51</v>
+      </c>
+      <c r="C334" t="s">
+        <v>24</v>
+      </c>
+      <c r="E334" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>309</v>
+      </c>
+      <c r="B335">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C335" t="s">
+        <v>24</v>
+      </c>
+      <c r="E335" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>310</v>
+      </c>
+      <c r="B336">
+        <v>8.98</v>
+      </c>
+      <c r="C336" t="s">
+        <v>24</v>
+      </c>
+      <c r="E336" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>311</v>
+      </c>
+      <c r="B337">
+        <v>12.76</v>
+      </c>
+      <c r="C337" t="s">
+        <v>24</v>
+      </c>
+      <c r="E337" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
